--- a/Öğrenci_Soru_Sayısı_TYT_AYT_Net_V10.xlsx
+++ b/Öğrenci_Soru_Sayısı_TYT_AYT_Net_V10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bulen\Desktop\GITHUB ANA KLASOR\Student_Work_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560D9E90-81F8-4DBD-8F7D-B9D1D0DDF414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DE1E8B-8EC5-4A58-AE64-F83907927464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{188079E3-1FB8-4C3A-A4C1-FF4FF04EE122}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{188079E3-1FB8-4C3A-A4C1-FF4FF04EE122}"/>
   </bookViews>
   <sheets>
     <sheet name="HAFTALIK SORU  " sheetId="25" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sayfa2" sheetId="30" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AYT DENEME NET'!$B$1:$V$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AYT DENEME NET'!$A$1:$V$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HAFTALIK SORU  '!$A$1:$P$139</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TYT DENEME NET '!$A$1:$Q$86</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="90">
   <si>
     <t>Geometri</t>
   </si>
@@ -301,37 +301,42 @@
     <t>Özdebir 3</t>
   </si>
   <si>
-    <t>MAT-2
-35</t>
+    <t>ÖZDEBİR3</t>
   </si>
   <si>
-    <t>GEO-2
-5</t>
+    <t>MAT-2(35)
+NET</t>
   </si>
   <si>
-    <t>FİZ-2
-14</t>
+    <t>GEO-2(5)
+NET</t>
   </si>
   <si>
-    <t>KİM-2
-13</t>
+    <t>FİZ-2(14)
+NET</t>
   </si>
   <si>
-    <t>BİY-2
-13</t>
+    <t>KİM-2(13)
+NET</t>
   </si>
   <si>
-    <t>TOPLAM 80</t>
+    <t>BİY-2(13)
+NET</t>
   </si>
   <si>
-    <t>ÖZDEBİR3</t>
+    <t>TOPLAM (80)
+NET</t>
+  </si>
+  <si>
+    <t>TOPLAM NET
+(120)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +365,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -488,7 +502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -704,41 +718,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -768,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1138,7 +1117,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1153,7 +1132,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1172,7 +1151,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1192,7 +1170,6 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1203,57 +1180,20 @@
     <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1285,7 +1225,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1293,6 +1233,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5140,7 +5086,8 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TOPLAM NET</c:v>
+                  <c:v>TOPLAM NET
+(120)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6539,9 +6486,9 @@
   </sheetPr>
   <dimension ref="A1:P183"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F153" sqref="F153"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R158" sqref="R158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6551,7 +6498,7 @@
     <col min="3" max="3" width="7.6640625" style="9" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="17" customWidth="1"/>
-    <col min="6" max="15" width="11" style="4" customWidth="1"/>
+    <col min="6" max="15" width="11" style="5" customWidth="1"/>
     <col min="16" max="16" width="13.33203125" style="9" customWidth="1"/>
     <col min="17" max="16384" width="8.88671875" style="4"/>
   </cols>
@@ -8545,19 +8492,19 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="143">
+      <c r="A40" s="142">
         <v>45580</v>
       </c>
-      <c r="B40" s="144" t="s">
+      <c r="B40" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="145">
+      <c r="C40" s="144">
         <v>3</v>
       </c>
-      <c r="D40" s="146">
-        <v>1</v>
-      </c>
-      <c r="E40" s="147" t="s">
+      <c r="D40" s="145">
+        <v>1</v>
+      </c>
+      <c r="E40" s="146" t="s">
         <v>21</v>
       </c>
       <c r="F40" s="139">
@@ -8596,19 +8543,19 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="143">
+      <c r="A41" s="142">
         <v>45580</v>
       </c>
-      <c r="B41" s="144" t="s">
+      <c r="B41" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="145">
+      <c r="C41" s="144">
         <v>3</v>
       </c>
-      <c r="D41" s="146">
-        <v>1</v>
-      </c>
-      <c r="E41" s="147" t="s">
+      <c r="D41" s="145">
+        <v>1</v>
+      </c>
+      <c r="E41" s="146" t="s">
         <v>22</v>
       </c>
       <c r="F41" s="139">
@@ -8647,19 +8594,19 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="143">
+      <c r="A42" s="142">
         <v>45580</v>
       </c>
-      <c r="B42" s="144" t="s">
+      <c r="B42" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="145">
+      <c r="C42" s="144">
         <v>3</v>
       </c>
-      <c r="D42" s="146">
-        <v>1</v>
-      </c>
-      <c r="E42" s="147" t="s">
+      <c r="D42" s="145">
+        <v>1</v>
+      </c>
+      <c r="E42" s="146" t="s">
         <v>23</v>
       </c>
       <c r="F42" s="139">
@@ -8698,19 +8645,19 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="143">
+      <c r="A43" s="142">
         <v>45580</v>
       </c>
-      <c r="B43" s="144" t="s">
+      <c r="B43" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="145">
+      <c r="C43" s="144">
         <v>3</v>
       </c>
-      <c r="D43" s="146">
-        <v>1</v>
-      </c>
-      <c r="E43" s="147" t="s">
+      <c r="D43" s="145">
+        <v>1</v>
+      </c>
+      <c r="E43" s="146" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="139">
@@ -8749,19 +8696,19 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="143">
+      <c r="A44" s="142">
         <v>45580</v>
       </c>
-      <c r="B44" s="144" t="s">
+      <c r="B44" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="145">
+      <c r="C44" s="144">
         <v>3</v>
       </c>
-      <c r="D44" s="146">
-        <v>1</v>
-      </c>
-      <c r="E44" s="147" t="s">
+      <c r="D44" s="145">
+        <v>1</v>
+      </c>
+      <c r="E44" s="146" t="s">
         <v>25</v>
       </c>
       <c r="F44" s="139">
@@ -8800,19 +8747,19 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="143">
+      <c r="A45" s="142">
         <v>45580</v>
       </c>
-      <c r="B45" s="144" t="s">
+      <c r="B45" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="145">
+      <c r="C45" s="144">
         <v>3</v>
       </c>
-      <c r="D45" s="146">
-        <v>1</v>
-      </c>
-      <c r="E45" s="147" t="s">
+      <c r="D45" s="145">
+        <v>1</v>
+      </c>
+      <c r="E45" s="146" t="s">
         <v>26</v>
       </c>
       <c r="F45" s="139">
@@ -8851,19 +8798,19 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="143">
+      <c r="A46" s="142">
         <v>45580</v>
       </c>
-      <c r="B46" s="144" t="s">
+      <c r="B46" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="145">
+      <c r="C46" s="144">
         <v>3</v>
       </c>
-      <c r="D46" s="146">
-        <v>1</v>
-      </c>
-      <c r="E46" s="147" t="s">
+      <c r="D46" s="145">
+        <v>1</v>
+      </c>
+      <c r="E46" s="146" t="s">
         <v>27</v>
       </c>
       <c r="F46" s="139">
@@ -8902,19 +8849,19 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="143">
+      <c r="A47" s="142">
         <v>45580</v>
       </c>
-      <c r="B47" s="144" t="s">
+      <c r="B47" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="145">
+      <c r="C47" s="144">
         <v>3</v>
       </c>
-      <c r="D47" s="146">
-        <v>1</v>
-      </c>
-      <c r="E47" s="147" t="s">
+      <c r="D47" s="145">
+        <v>1</v>
+      </c>
+      <c r="E47" s="146" t="s">
         <v>28</v>
       </c>
       <c r="F47" s="139">
@@ -8953,19 +8900,19 @@
       </c>
     </row>
     <row r="48" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="143">
+      <c r="A48" s="142">
         <v>45580</v>
       </c>
-      <c r="B48" s="144" t="s">
+      <c r="B48" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="145">
+      <c r="C48" s="144">
         <v>3</v>
       </c>
-      <c r="D48" s="146">
-        <v>1</v>
-      </c>
-      <c r="E48" s="148" t="s">
+      <c r="D48" s="145">
+        <v>1</v>
+      </c>
+      <c r="E48" s="147" t="s">
         <v>29</v>
       </c>
       <c r="F48" s="139">
@@ -9004,19 +8951,19 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="143">
+      <c r="A49" s="142">
         <v>45580</v>
       </c>
-      <c r="B49" s="144" t="s">
+      <c r="B49" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="145">
+      <c r="C49" s="144">
         <v>3</v>
       </c>
-      <c r="D49" s="146">
-        <v>1</v>
-      </c>
-      <c r="E49" s="148" t="s">
+      <c r="D49" s="145">
+        <v>1</v>
+      </c>
+      <c r="E49" s="147" t="s">
         <v>30</v>
       </c>
       <c r="F49" s="139">
@@ -14253,34 +14200,34 @@
       <c r="E151" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="F151" s="141">
+      <c r="F151" s="61">
         <v>500</v>
       </c>
-      <c r="G151" s="141">
+      <c r="G151" s="61">
         <v>350</v>
       </c>
-      <c r="H151" s="141">
+      <c r="H151" s="61">
         <v>200</v>
       </c>
-      <c r="I151" s="141">
+      <c r="I151" s="61">
         <v>80</v>
       </c>
-      <c r="J151" s="141">
-        <v>0</v>
-      </c>
-      <c r="K151" s="141">
+      <c r="J151" s="61">
+        <v>0</v>
+      </c>
+      <c r="K151" s="61">
         <v>150</v>
       </c>
-      <c r="L151" s="141">
+      <c r="L151" s="61">
         <v>200</v>
       </c>
-      <c r="M151" s="141">
-        <v>0</v>
-      </c>
-      <c r="N151" s="141">
-        <v>0</v>
-      </c>
-      <c r="O151" s="141">
+      <c r="M151" s="61">
+        <v>0</v>
+      </c>
+      <c r="N151" s="61">
+        <v>0</v>
+      </c>
+      <c r="O151" s="61">
         <v>0</v>
       </c>
       <c r="P151" s="109">
@@ -14304,34 +14251,34 @@
       <c r="E152" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="F152" s="141">
+      <c r="F152" s="61">
         <v>138</v>
       </c>
-      <c r="G152" s="141">
+      <c r="G152" s="61">
         <v>63</v>
       </c>
-      <c r="H152" s="141">
+      <c r="H152" s="61">
         <v>37</v>
       </c>
-      <c r="I152" s="141">
+      <c r="I152" s="61">
         <v>185</v>
       </c>
-      <c r="J152" s="141">
+      <c r="J152" s="61">
         <v>121</v>
       </c>
-      <c r="K152" s="141">
+      <c r="K152" s="61">
         <v>152</v>
       </c>
-      <c r="L152" s="141">
+      <c r="L152" s="61">
         <v>119</v>
       </c>
-      <c r="M152" s="141">
-        <v>0</v>
-      </c>
-      <c r="N152" s="141">
-        <v>0</v>
-      </c>
-      <c r="O152" s="141">
+      <c r="M152" s="61">
+        <v>0</v>
+      </c>
+      <c r="N152" s="61">
+        <v>0</v>
+      </c>
+      <c r="O152" s="61">
         <v>0</v>
       </c>
       <c r="P152" s="109">
@@ -14355,34 +14302,34 @@
       <c r="E153" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="F153" s="141">
+      <c r="F153" s="61">
         <v>263</v>
       </c>
-      <c r="G153" s="141">
+      <c r="G153" s="61">
         <v>197</v>
       </c>
-      <c r="H153" s="141">
+      <c r="H153" s="61">
         <v>100</v>
       </c>
-      <c r="I153" s="141">
+      <c r="I153" s="61">
         <v>194</v>
       </c>
-      <c r="J153" s="141">
+      <c r="J153" s="61">
         <v>150</v>
       </c>
-      <c r="K153" s="141">
+      <c r="K153" s="61">
         <v>165</v>
       </c>
-      <c r="L153" s="141">
+      <c r="L153" s="61">
         <v>200</v>
       </c>
-      <c r="M153" s="141">
-        <v>0</v>
-      </c>
-      <c r="N153" s="141">
-        <v>0</v>
-      </c>
-      <c r="O153" s="141">
+      <c r="M153" s="61">
+        <v>0</v>
+      </c>
+      <c r="N153" s="61">
+        <v>0</v>
+      </c>
+      <c r="O153" s="61">
         <v>0</v>
       </c>
       <c r="P153" s="109">
@@ -14406,34 +14353,34 @@
       <c r="E154" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="F154" s="141">
+      <c r="F154" s="61">
         <v>410</v>
       </c>
-      <c r="G154" s="141">
+      <c r="G154" s="61">
         <v>140</v>
       </c>
-      <c r="H154" s="141">
+      <c r="H154" s="61">
         <v>90</v>
       </c>
-      <c r="I154" s="141">
+      <c r="I154" s="61">
         <v>400</v>
       </c>
-      <c r="J154" s="141">
+      <c r="J154" s="61">
         <v>30</v>
       </c>
-      <c r="K154" s="141">
+      <c r="K154" s="61">
         <v>270</v>
       </c>
-      <c r="L154" s="141">
+      <c r="L154" s="61">
         <v>100</v>
       </c>
-      <c r="M154" s="141">
-        <v>0</v>
-      </c>
-      <c r="N154" s="141">
-        <v>0</v>
-      </c>
-      <c r="O154" s="141">
+      <c r="M154" s="61">
+        <v>0</v>
+      </c>
+      <c r="N154" s="61">
+        <v>0</v>
+      </c>
+      <c r="O154" s="61">
         <v>0</v>
       </c>
       <c r="P154" s="109">
@@ -14457,34 +14404,34 @@
       <c r="E155" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="F155" s="141">
+      <c r="F155" s="61">
         <v>400</v>
       </c>
-      <c r="G155" s="141">
+      <c r="G155" s="61">
         <v>250</v>
       </c>
-      <c r="H155" s="141">
+      <c r="H155" s="61">
         <v>150</v>
       </c>
-      <c r="I155" s="141">
+      <c r="I155" s="61">
         <v>200</v>
       </c>
-      <c r="J155" s="141">
+      <c r="J155" s="61">
         <v>200</v>
       </c>
-      <c r="K155" s="141">
+      <c r="K155" s="61">
         <v>200</v>
       </c>
-      <c r="L155" s="141">
+      <c r="L155" s="61">
         <v>200</v>
       </c>
-      <c r="M155" s="141">
-        <v>0</v>
-      </c>
-      <c r="N155" s="141">
-        <v>0</v>
-      </c>
-      <c r="O155" s="141">
+      <c r="M155" s="61">
+        <v>0</v>
+      </c>
+      <c r="N155" s="61">
+        <v>0</v>
+      </c>
+      <c r="O155" s="61">
         <v>0</v>
       </c>
       <c r="P155" s="109">
@@ -14508,34 +14455,34 @@
       <c r="E156" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="F156" s="141">
-        <v>0</v>
-      </c>
-      <c r="G156" s="141">
-        <v>0</v>
-      </c>
-      <c r="H156" s="141">
-        <v>0</v>
-      </c>
-      <c r="I156" s="141">
-        <v>0</v>
-      </c>
-      <c r="J156" s="141">
-        <v>0</v>
-      </c>
-      <c r="K156" s="141">
-        <v>0</v>
-      </c>
-      <c r="L156" s="141">
-        <v>0</v>
-      </c>
-      <c r="M156" s="141">
-        <v>0</v>
-      </c>
-      <c r="N156" s="141">
-        <v>0</v>
-      </c>
-      <c r="O156" s="141">
+      <c r="F156" s="61">
+        <v>0</v>
+      </c>
+      <c r="G156" s="61">
+        <v>0</v>
+      </c>
+      <c r="H156" s="61">
+        <v>0</v>
+      </c>
+      <c r="I156" s="61">
+        <v>0</v>
+      </c>
+      <c r="J156" s="61">
+        <v>0</v>
+      </c>
+      <c r="K156" s="61">
+        <v>0</v>
+      </c>
+      <c r="L156" s="61">
+        <v>0</v>
+      </c>
+      <c r="M156" s="61">
+        <v>0</v>
+      </c>
+      <c r="N156" s="61">
+        <v>0</v>
+      </c>
+      <c r="O156" s="61">
         <v>0</v>
       </c>
       <c r="P156" s="109">
@@ -14558,34 +14505,34 @@
       <c r="E157" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="F157" s="141">
+      <c r="F157" s="61">
         <v>250</v>
       </c>
-      <c r="G157" s="141">
+      <c r="G157" s="61">
         <v>180</v>
       </c>
-      <c r="H157" s="141">
+      <c r="H157" s="61">
         <v>85</v>
       </c>
-      <c r="I157" s="141">
+      <c r="I157" s="61">
         <v>340</v>
       </c>
-      <c r="J157" s="141">
+      <c r="J157" s="61">
         <v>215</v>
       </c>
-      <c r="K157" s="141">
+      <c r="K157" s="61">
         <v>40</v>
       </c>
-      <c r="L157" s="141">
+      <c r="L157" s="61">
         <v>105</v>
       </c>
-      <c r="M157" s="141">
-        <v>0</v>
-      </c>
-      <c r="N157" s="141">
-        <v>0</v>
-      </c>
-      <c r="O157" s="141">
+      <c r="M157" s="61">
+        <v>0</v>
+      </c>
+      <c r="N157" s="61">
+        <v>0</v>
+      </c>
+      <c r="O157" s="61">
         <v>0</v>
       </c>
       <c r="P157" s="109">
@@ -14609,34 +14556,34 @@
       <c r="E158" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="F158" s="141">
+      <c r="F158" s="61">
         <v>200</v>
       </c>
-      <c r="G158" s="141">
+      <c r="G158" s="61">
         <v>260</v>
       </c>
-      <c r="H158" s="141">
+      <c r="H158" s="61">
         <v>150</v>
       </c>
-      <c r="I158" s="141">
+      <c r="I158" s="61">
         <v>420</v>
       </c>
-      <c r="J158" s="141">
-        <v>0</v>
-      </c>
-      <c r="K158" s="141">
+      <c r="J158" s="61">
+        <v>0</v>
+      </c>
+      <c r="K158" s="61">
         <v>360</v>
       </c>
-      <c r="L158" s="141">
+      <c r="L158" s="61">
         <v>260</v>
       </c>
-      <c r="M158" s="141">
-        <v>0</v>
-      </c>
-      <c r="N158" s="141">
-        <v>0</v>
-      </c>
-      <c r="O158" s="141">
+      <c r="M158" s="61">
+        <v>0</v>
+      </c>
+      <c r="N158" s="61">
+        <v>0</v>
+      </c>
+      <c r="O158" s="61">
         <v>0</v>
       </c>
       <c r="P158" s="109">
@@ -14660,34 +14607,34 @@
       <c r="E159" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="F159" s="141">
-        <v>0</v>
-      </c>
-      <c r="G159" s="141">
-        <v>0</v>
-      </c>
-      <c r="H159" s="141">
-        <v>0</v>
-      </c>
-      <c r="I159" s="141">
-        <v>0</v>
-      </c>
-      <c r="J159" s="141">
-        <v>0</v>
-      </c>
-      <c r="K159" s="141">
-        <v>0</v>
-      </c>
-      <c r="L159" s="141">
-        <v>0</v>
-      </c>
-      <c r="M159" s="141">
-        <v>0</v>
-      </c>
-      <c r="N159" s="141">
-        <v>0</v>
-      </c>
-      <c r="O159" s="141">
+      <c r="F159" s="61">
+        <v>0</v>
+      </c>
+      <c r="G159" s="61">
+        <v>0</v>
+      </c>
+      <c r="H159" s="61">
+        <v>0</v>
+      </c>
+      <c r="I159" s="61">
+        <v>0</v>
+      </c>
+      <c r="J159" s="61">
+        <v>0</v>
+      </c>
+      <c r="K159" s="61">
+        <v>0</v>
+      </c>
+      <c r="L159" s="61">
+        <v>0</v>
+      </c>
+      <c r="M159" s="61">
+        <v>0</v>
+      </c>
+      <c r="N159" s="61">
+        <v>0</v>
+      </c>
+      <c r="O159" s="61">
         <v>0</v>
       </c>
       <c r="P159" s="109">
@@ -14711,34 +14658,34 @@
       <c r="E160" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="F160" s="141">
+      <c r="F160" s="61">
         <v>120</v>
       </c>
-      <c r="G160" s="141">
+      <c r="G160" s="61">
         <v>140</v>
       </c>
-      <c r="H160" s="141">
+      <c r="H160" s="61">
         <v>55</v>
       </c>
-      <c r="I160" s="141">
+      <c r="I160" s="61">
         <v>130</v>
       </c>
-      <c r="J160" s="141">
+      <c r="J160" s="61">
         <v>160</v>
       </c>
-      <c r="K160" s="141">
+      <c r="K160" s="61">
         <v>100</v>
       </c>
-      <c r="L160" s="141">
+      <c r="L160" s="61">
         <v>110</v>
       </c>
-      <c r="M160" s="141">
-        <v>0</v>
-      </c>
-      <c r="N160" s="141">
-        <v>0</v>
-      </c>
-      <c r="O160" s="141">
+      <c r="M160" s="61">
+        <v>0</v>
+      </c>
+      <c r="N160" s="61">
+        <v>0</v>
+      </c>
+      <c r="O160" s="61">
         <v>0</v>
       </c>
       <c r="P160" s="109">
@@ -14762,34 +14709,34 @@
       <c r="E161" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="F161" s="141">
+      <c r="F161" s="61">
         <v>131</v>
       </c>
-      <c r="G161" s="141">
+      <c r="G161" s="61">
         <v>37</v>
       </c>
-      <c r="H161" s="141">
-        <v>0</v>
-      </c>
-      <c r="I161" s="141">
+      <c r="H161" s="61">
+        <v>0</v>
+      </c>
+      <c r="I161" s="61">
         <v>95</v>
       </c>
-      <c r="J161" s="141">
+      <c r="J161" s="61">
         <v>120</v>
       </c>
-      <c r="K161" s="141">
+      <c r="K161" s="61">
         <v>132</v>
       </c>
-      <c r="L161" s="141">
+      <c r="L161" s="61">
         <v>125</v>
       </c>
-      <c r="M161" s="141">
-        <v>0</v>
-      </c>
-      <c r="N161" s="141">
-        <v>0</v>
-      </c>
-      <c r="O161" s="141">
+      <c r="M161" s="61">
+        <v>0</v>
+      </c>
+      <c r="N161" s="61">
+        <v>0</v>
+      </c>
+      <c r="O161" s="61">
         <v>0</v>
       </c>
       <c r="P161" s="109">
@@ -14811,16 +14758,16 @@
       <c r="E162" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="F162" s="149"/>
-      <c r="G162" s="149"/>
-      <c r="H162" s="149"/>
-      <c r="I162" s="149"/>
-      <c r="J162" s="149"/>
-      <c r="K162" s="149"/>
-      <c r="L162" s="149"/>
-      <c r="M162" s="149"/>
-      <c r="N162" s="149"/>
-      <c r="O162" s="149"/>
+      <c r="F162" s="98"/>
+      <c r="G162" s="98"/>
+      <c r="H162" s="98"/>
+      <c r="I162" s="98"/>
+      <c r="J162" s="98"/>
+      <c r="K162" s="98"/>
+      <c r="L162" s="98"/>
+      <c r="M162" s="98"/>
+      <c r="N162" s="98"/>
+      <c r="O162" s="98"/>
       <c r="P162" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -14840,16 +14787,16 @@
       <c r="E163" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="F163" s="149"/>
-      <c r="G163" s="149"/>
-      <c r="H163" s="149"/>
-      <c r="I163" s="149"/>
-      <c r="J163" s="149"/>
-      <c r="K163" s="149"/>
-      <c r="L163" s="149"/>
-      <c r="M163" s="149"/>
-      <c r="N163" s="149"/>
-      <c r="O163" s="149"/>
+      <c r="F163" s="98"/>
+      <c r="G163" s="98"/>
+      <c r="H163" s="98"/>
+      <c r="I163" s="98"/>
+      <c r="J163" s="98"/>
+      <c r="K163" s="98"/>
+      <c r="L163" s="98"/>
+      <c r="M163" s="98"/>
+      <c r="N163" s="98"/>
+      <c r="O163" s="98"/>
       <c r="P163" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -14869,16 +14816,16 @@
       <c r="E164" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="F164" s="149"/>
-      <c r="G164" s="149"/>
-      <c r="H164" s="149"/>
-      <c r="I164" s="149"/>
-      <c r="J164" s="149"/>
-      <c r="K164" s="149"/>
-      <c r="L164" s="149"/>
-      <c r="M164" s="149"/>
-      <c r="N164" s="149"/>
-      <c r="O164" s="149"/>
+      <c r="F164" s="98"/>
+      <c r="G164" s="98"/>
+      <c r="H164" s="98"/>
+      <c r="I164" s="98"/>
+      <c r="J164" s="98"/>
+      <c r="K164" s="98"/>
+      <c r="L164" s="98"/>
+      <c r="M164" s="98"/>
+      <c r="N164" s="98"/>
+      <c r="O164" s="98"/>
       <c r="P164" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -14898,16 +14845,16 @@
       <c r="E165" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="F165" s="149"/>
-      <c r="G165" s="149"/>
-      <c r="H165" s="149"/>
-      <c r="I165" s="149"/>
-      <c r="J165" s="149"/>
-      <c r="K165" s="149"/>
-      <c r="L165" s="149"/>
-      <c r="M165" s="149"/>
-      <c r="N165" s="149"/>
-      <c r="O165" s="149"/>
+      <c r="F165" s="98"/>
+      <c r="G165" s="98"/>
+      <c r="H165" s="98"/>
+      <c r="I165" s="98"/>
+      <c r="J165" s="98"/>
+      <c r="K165" s="98"/>
+      <c r="L165" s="98"/>
+      <c r="M165" s="98"/>
+      <c r="N165" s="98"/>
+      <c r="O165" s="98"/>
       <c r="P165" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -14927,16 +14874,16 @@
       <c r="E166" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="F166" s="149"/>
-      <c r="G166" s="149"/>
-      <c r="H166" s="149"/>
-      <c r="I166" s="149"/>
-      <c r="J166" s="149"/>
-      <c r="K166" s="149"/>
-      <c r="L166" s="149"/>
-      <c r="M166" s="149"/>
-      <c r="N166" s="149"/>
-      <c r="O166" s="149"/>
+      <c r="F166" s="98"/>
+      <c r="G166" s="98"/>
+      <c r="H166" s="98"/>
+      <c r="I166" s="98"/>
+      <c r="J166" s="98"/>
+      <c r="K166" s="98"/>
+      <c r="L166" s="98"/>
+      <c r="M166" s="98"/>
+      <c r="N166" s="98"/>
+      <c r="O166" s="98"/>
       <c r="P166" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -14956,16 +14903,16 @@
       <c r="E167" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="F167" s="149"/>
-      <c r="G167" s="149"/>
-      <c r="H167" s="149"/>
-      <c r="I167" s="149"/>
-      <c r="J167" s="149"/>
-      <c r="K167" s="149"/>
-      <c r="L167" s="149"/>
-      <c r="M167" s="149"/>
-      <c r="N167" s="149"/>
-      <c r="O167" s="149"/>
+      <c r="F167" s="98"/>
+      <c r="G167" s="98"/>
+      <c r="H167" s="98"/>
+      <c r="I167" s="98"/>
+      <c r="J167" s="98"/>
+      <c r="K167" s="98"/>
+      <c r="L167" s="98"/>
+      <c r="M167" s="98"/>
+      <c r="N167" s="98"/>
+      <c r="O167" s="98"/>
       <c r="P167" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -14985,16 +14932,16 @@
       <c r="E168" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="F168" s="149"/>
-      <c r="G168" s="149"/>
-      <c r="H168" s="149"/>
-      <c r="I168" s="149"/>
-      <c r="J168" s="149"/>
-      <c r="K168" s="149"/>
-      <c r="L168" s="149"/>
-      <c r="M168" s="149"/>
-      <c r="N168" s="149"/>
-      <c r="O168" s="149"/>
+      <c r="F168" s="98"/>
+      <c r="G168" s="98"/>
+      <c r="H168" s="98"/>
+      <c r="I168" s="98"/>
+      <c r="J168" s="98"/>
+      <c r="K168" s="98"/>
+      <c r="L168" s="98"/>
+      <c r="M168" s="98"/>
+      <c r="N168" s="98"/>
+      <c r="O168" s="98"/>
       <c r="P168" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -15014,16 +14961,16 @@
       <c r="E169" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="F169" s="149"/>
-      <c r="G169" s="149"/>
-      <c r="H169" s="149"/>
-      <c r="I169" s="149"/>
-      <c r="J169" s="149"/>
-      <c r="K169" s="149"/>
-      <c r="L169" s="149"/>
-      <c r="M169" s="149"/>
-      <c r="N169" s="149"/>
-      <c r="O169" s="149"/>
+      <c r="F169" s="98"/>
+      <c r="G169" s="98"/>
+      <c r="H169" s="98"/>
+      <c r="I169" s="98"/>
+      <c r="J169" s="98"/>
+      <c r="K169" s="98"/>
+      <c r="L169" s="98"/>
+      <c r="M169" s="98"/>
+      <c r="N169" s="98"/>
+      <c r="O169" s="98"/>
       <c r="P169" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -15043,16 +14990,16 @@
       <c r="E170" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="F170" s="149"/>
-      <c r="G170" s="149"/>
-      <c r="H170" s="149"/>
-      <c r="I170" s="149"/>
-      <c r="J170" s="149"/>
-      <c r="K170" s="149"/>
-      <c r="L170" s="149"/>
-      <c r="M170" s="149"/>
-      <c r="N170" s="149"/>
-      <c r="O170" s="149"/>
+      <c r="F170" s="98"/>
+      <c r="G170" s="98"/>
+      <c r="H170" s="98"/>
+      <c r="I170" s="98"/>
+      <c r="J170" s="98"/>
+      <c r="K170" s="98"/>
+      <c r="L170" s="98"/>
+      <c r="M170" s="98"/>
+      <c r="N170" s="98"/>
+      <c r="O170" s="98"/>
       <c r="P170" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -15072,16 +15019,16 @@
       <c r="E171" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="F171" s="149"/>
-      <c r="G171" s="149"/>
-      <c r="H171" s="149"/>
-      <c r="I171" s="149"/>
-      <c r="J171" s="149"/>
-      <c r="K171" s="149"/>
-      <c r="L171" s="149"/>
-      <c r="M171" s="149"/>
-      <c r="N171" s="149"/>
-      <c r="O171" s="149"/>
+      <c r="F171" s="98"/>
+      <c r="G171" s="98"/>
+      <c r="H171" s="98"/>
+      <c r="I171" s="98"/>
+      <c r="J171" s="98"/>
+      <c r="K171" s="98"/>
+      <c r="L171" s="98"/>
+      <c r="M171" s="98"/>
+      <c r="N171" s="98"/>
+      <c r="O171" s="98"/>
       <c r="P171" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -15101,336 +15048,336 @@
       <c r="E172" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="F172" s="149"/>
-      <c r="G172" s="149"/>
-      <c r="H172" s="149"/>
-      <c r="I172" s="149"/>
-      <c r="J172" s="149"/>
-      <c r="K172" s="149"/>
-      <c r="L172" s="149"/>
-      <c r="M172" s="149"/>
-      <c r="N172" s="149"/>
-      <c r="O172" s="149"/>
+      <c r="F172" s="98"/>
+      <c r="G172" s="98"/>
+      <c r="H172" s="98"/>
+      <c r="I172" s="98"/>
+      <c r="J172" s="98"/>
+      <c r="K172" s="98"/>
+      <c r="L172" s="98"/>
+      <c r="M172" s="98"/>
+      <c r="N172" s="98"/>
+      <c r="O172" s="98"/>
       <c r="P172" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A173" s="150">
+      <c r="A173" s="148">
         <v>45679</v>
       </c>
-      <c r="B173" s="151" t="s">
+      <c r="B173" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="C173" s="152">
+      <c r="C173" s="150">
         <v>4</v>
       </c>
-      <c r="D173" s="151"/>
-      <c r="E173" s="153" t="s">
+      <c r="D173" s="149"/>
+      <c r="E173" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="F173" s="154"/>
-      <c r="G173" s="154"/>
-      <c r="H173" s="154"/>
-      <c r="I173" s="154"/>
-      <c r="J173" s="154"/>
-      <c r="K173" s="154"/>
-      <c r="L173" s="154"/>
-      <c r="M173" s="154"/>
-      <c r="N173" s="154"/>
-      <c r="O173" s="154"/>
-      <c r="P173" s="152">
+      <c r="F173" s="149"/>
+      <c r="G173" s="149"/>
+      <c r="H173" s="149"/>
+      <c r="I173" s="149"/>
+      <c r="J173" s="149"/>
+      <c r="K173" s="149"/>
+      <c r="L173" s="149"/>
+      <c r="M173" s="149"/>
+      <c r="N173" s="149"/>
+      <c r="O173" s="149"/>
+      <c r="P173" s="150">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A174" s="150">
+      <c r="A174" s="148">
         <v>45679</v>
       </c>
-      <c r="B174" s="151" t="s">
+      <c r="B174" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="C174" s="152">
+      <c r="C174" s="150">
         <v>4</v>
       </c>
-      <c r="D174" s="151"/>
-      <c r="E174" s="153" t="s">
+      <c r="D174" s="149"/>
+      <c r="E174" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="F174" s="154"/>
-      <c r="G174" s="154"/>
-      <c r="H174" s="154"/>
-      <c r="I174" s="154"/>
-      <c r="J174" s="154"/>
-      <c r="K174" s="154"/>
-      <c r="L174" s="154"/>
-      <c r="M174" s="154"/>
-      <c r="N174" s="154"/>
-      <c r="O174" s="154"/>
-      <c r="P174" s="152">
+      <c r="F174" s="149"/>
+      <c r="G174" s="149"/>
+      <c r="H174" s="149"/>
+      <c r="I174" s="149"/>
+      <c r="J174" s="149"/>
+      <c r="K174" s="149"/>
+      <c r="L174" s="149"/>
+      <c r="M174" s="149"/>
+      <c r="N174" s="149"/>
+      <c r="O174" s="149"/>
+      <c r="P174" s="150">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A175" s="150">
+      <c r="A175" s="148">
         <v>45679</v>
       </c>
-      <c r="B175" s="151" t="s">
+      <c r="B175" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="C175" s="152">
+      <c r="C175" s="150">
         <v>4</v>
       </c>
-      <c r="D175" s="151"/>
-      <c r="E175" s="153" t="s">
+      <c r="D175" s="149"/>
+      <c r="E175" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="F175" s="154"/>
-      <c r="G175" s="154"/>
-      <c r="H175" s="154"/>
-      <c r="I175" s="154"/>
-      <c r="J175" s="154"/>
-      <c r="K175" s="154"/>
-      <c r="L175" s="154"/>
-      <c r="M175" s="154"/>
-      <c r="N175" s="154"/>
-      <c r="O175" s="154"/>
-      <c r="P175" s="152">
+      <c r="F175" s="149"/>
+      <c r="G175" s="149"/>
+      <c r="H175" s="149"/>
+      <c r="I175" s="149"/>
+      <c r="J175" s="149"/>
+      <c r="K175" s="149"/>
+      <c r="L175" s="149"/>
+      <c r="M175" s="149"/>
+      <c r="N175" s="149"/>
+      <c r="O175" s="149"/>
+      <c r="P175" s="150">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A176" s="150">
+      <c r="A176" s="148">
         <v>45679</v>
       </c>
-      <c r="B176" s="151" t="s">
+      <c r="B176" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="C176" s="152">
+      <c r="C176" s="150">
         <v>4</v>
       </c>
-      <c r="D176" s="151"/>
-      <c r="E176" s="153" t="s">
+      <c r="D176" s="149"/>
+      <c r="E176" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="F176" s="154"/>
-      <c r="G176" s="154"/>
-      <c r="H176" s="154"/>
-      <c r="I176" s="154"/>
-      <c r="J176" s="154"/>
-      <c r="K176" s="154"/>
-      <c r="L176" s="154"/>
-      <c r="M176" s="154"/>
-      <c r="N176" s="154"/>
-      <c r="O176" s="154"/>
-      <c r="P176" s="152">
+      <c r="F176" s="149"/>
+      <c r="G176" s="149"/>
+      <c r="H176" s="149"/>
+      <c r="I176" s="149"/>
+      <c r="J176" s="149"/>
+      <c r="K176" s="149"/>
+      <c r="L176" s="149"/>
+      <c r="M176" s="149"/>
+      <c r="N176" s="149"/>
+      <c r="O176" s="149"/>
+      <c r="P176" s="150">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A177" s="150">
+      <c r="A177" s="148">
         <v>45679</v>
       </c>
-      <c r="B177" s="151" t="s">
+      <c r="B177" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="C177" s="152">
+      <c r="C177" s="150">
         <v>4</v>
       </c>
-      <c r="D177" s="151"/>
-      <c r="E177" s="153" t="s">
+      <c r="D177" s="149"/>
+      <c r="E177" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="F177" s="154"/>
-      <c r="G177" s="154"/>
-      <c r="H177" s="154"/>
-      <c r="I177" s="154"/>
-      <c r="J177" s="154"/>
-      <c r="K177" s="154"/>
-      <c r="L177" s="154"/>
-      <c r="M177" s="154"/>
-      <c r="N177" s="154"/>
-      <c r="O177" s="154"/>
-      <c r="P177" s="152">
+      <c r="F177" s="149"/>
+      <c r="G177" s="149"/>
+      <c r="H177" s="149"/>
+      <c r="I177" s="149"/>
+      <c r="J177" s="149"/>
+      <c r="K177" s="149"/>
+      <c r="L177" s="149"/>
+      <c r="M177" s="149"/>
+      <c r="N177" s="149"/>
+      <c r="O177" s="149"/>
+      <c r="P177" s="150">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A178" s="150">
+      <c r="A178" s="148">
         <v>45679</v>
       </c>
-      <c r="B178" s="151" t="s">
+      <c r="B178" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="C178" s="152">
+      <c r="C178" s="150">
         <v>4</v>
       </c>
-      <c r="D178" s="151"/>
-      <c r="E178" s="153" t="s">
+      <c r="D178" s="149"/>
+      <c r="E178" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="F178" s="154"/>
-      <c r="G178" s="154"/>
-      <c r="H178" s="154"/>
-      <c r="I178" s="154"/>
-      <c r="J178" s="154"/>
-      <c r="K178" s="154"/>
-      <c r="L178" s="154"/>
-      <c r="M178" s="154"/>
-      <c r="N178" s="154"/>
-      <c r="O178" s="154"/>
-      <c r="P178" s="152">
+      <c r="F178" s="149"/>
+      <c r="G178" s="149"/>
+      <c r="H178" s="149"/>
+      <c r="I178" s="149"/>
+      <c r="J178" s="149"/>
+      <c r="K178" s="149"/>
+      <c r="L178" s="149"/>
+      <c r="M178" s="149"/>
+      <c r="N178" s="149"/>
+      <c r="O178" s="149"/>
+      <c r="P178" s="150">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A179" s="150">
+      <c r="A179" s="148">
         <v>45679</v>
       </c>
-      <c r="B179" s="151" t="s">
+      <c r="B179" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="C179" s="152">
+      <c r="C179" s="150">
         <v>4</v>
       </c>
-      <c r="D179" s="151"/>
-      <c r="E179" s="153" t="s">
+      <c r="D179" s="149"/>
+      <c r="E179" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="F179" s="154"/>
-      <c r="G179" s="154"/>
-      <c r="H179" s="154"/>
-      <c r="I179" s="154"/>
-      <c r="J179" s="154"/>
-      <c r="K179" s="154"/>
-      <c r="L179" s="154"/>
-      <c r="M179" s="154"/>
-      <c r="N179" s="154"/>
-      <c r="O179" s="154"/>
-      <c r="P179" s="152">
+      <c r="F179" s="149"/>
+      <c r="G179" s="149"/>
+      <c r="H179" s="149"/>
+      <c r="I179" s="149"/>
+      <c r="J179" s="149"/>
+      <c r="K179" s="149"/>
+      <c r="L179" s="149"/>
+      <c r="M179" s="149"/>
+      <c r="N179" s="149"/>
+      <c r="O179" s="149"/>
+      <c r="P179" s="150">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A180" s="150">
+      <c r="A180" s="148">
         <v>45679</v>
       </c>
-      <c r="B180" s="151" t="s">
+      <c r="B180" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="C180" s="152">
+      <c r="C180" s="150">
         <v>4</v>
       </c>
-      <c r="D180" s="151"/>
-      <c r="E180" s="153" t="s">
+      <c r="D180" s="149"/>
+      <c r="E180" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="F180" s="154"/>
-      <c r="G180" s="154"/>
-      <c r="H180" s="154"/>
-      <c r="I180" s="154"/>
-      <c r="J180" s="154"/>
-      <c r="K180" s="154"/>
-      <c r="L180" s="154"/>
-      <c r="M180" s="154"/>
-      <c r="N180" s="154"/>
-      <c r="O180" s="154"/>
-      <c r="P180" s="152">
+      <c r="F180" s="149"/>
+      <c r="G180" s="149"/>
+      <c r="H180" s="149"/>
+      <c r="I180" s="149"/>
+      <c r="J180" s="149"/>
+      <c r="K180" s="149"/>
+      <c r="L180" s="149"/>
+      <c r="M180" s="149"/>
+      <c r="N180" s="149"/>
+      <c r="O180" s="149"/>
+      <c r="P180" s="150">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A181" s="150">
+      <c r="A181" s="148">
         <v>45679</v>
       </c>
-      <c r="B181" s="151" t="s">
+      <c r="B181" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="C181" s="152">
+      <c r="C181" s="150">
         <v>4</v>
       </c>
-      <c r="D181" s="151"/>
-      <c r="E181" s="155" t="s">
+      <c r="D181" s="149"/>
+      <c r="E181" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="F181" s="154"/>
-      <c r="G181" s="154"/>
-      <c r="H181" s="154"/>
-      <c r="I181" s="154"/>
-      <c r="J181" s="154"/>
-      <c r="K181" s="154"/>
-      <c r="L181" s="154"/>
-      <c r="M181" s="154"/>
-      <c r="N181" s="154"/>
-      <c r="O181" s="154"/>
-      <c r="P181" s="152">
+      <c r="F181" s="149"/>
+      <c r="G181" s="149"/>
+      <c r="H181" s="149"/>
+      <c r="I181" s="149"/>
+      <c r="J181" s="149"/>
+      <c r="K181" s="149"/>
+      <c r="L181" s="149"/>
+      <c r="M181" s="149"/>
+      <c r="N181" s="149"/>
+      <c r="O181" s="149"/>
+      <c r="P181" s="150">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A182" s="150">
+      <c r="A182" s="148">
         <v>45679</v>
       </c>
-      <c r="B182" s="151" t="s">
+      <c r="B182" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="C182" s="152">
+      <c r="C182" s="150">
         <v>4</v>
       </c>
-      <c r="D182" s="151"/>
-      <c r="E182" s="155" t="s">
+      <c r="D182" s="149"/>
+      <c r="E182" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="F182" s="154"/>
-      <c r="G182" s="154"/>
-      <c r="H182" s="154"/>
-      <c r="I182" s="154"/>
-      <c r="J182" s="154"/>
-      <c r="K182" s="154"/>
-      <c r="L182" s="154"/>
-      <c r="M182" s="154"/>
-      <c r="N182" s="154"/>
-      <c r="O182" s="154"/>
-      <c r="P182" s="152">
+      <c r="F182" s="149"/>
+      <c r="G182" s="149"/>
+      <c r="H182" s="149"/>
+      <c r="I182" s="149"/>
+      <c r="J182" s="149"/>
+      <c r="K182" s="149"/>
+      <c r="L182" s="149"/>
+      <c r="M182" s="149"/>
+      <c r="N182" s="149"/>
+      <c r="O182" s="149"/>
+      <c r="P182" s="150">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A183" s="150">
+      <c r="A183" s="148">
         <v>45679</v>
       </c>
-      <c r="B183" s="151" t="s">
+      <c r="B183" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="C183" s="152">
+      <c r="C183" s="150">
         <v>4</v>
       </c>
-      <c r="D183" s="151"/>
-      <c r="E183" s="153" t="s">
+      <c r="D183" s="149"/>
+      <c r="E183" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="F183" s="154"/>
-      <c r="G183" s="154"/>
-      <c r="H183" s="154"/>
-      <c r="I183" s="154"/>
-      <c r="J183" s="154"/>
-      <c r="K183" s="154"/>
-      <c r="L183" s="154"/>
-      <c r="M183" s="154"/>
-      <c r="N183" s="154"/>
-      <c r="O183" s="154"/>
-      <c r="P183" s="152">
+      <c r="F183" s="149"/>
+      <c r="G183" s="149"/>
+      <c r="H183" s="149"/>
+      <c r="I183" s="149"/>
+      <c r="J183" s="149"/>
+      <c r="K183" s="149"/>
+      <c r="L183" s="149"/>
+      <c r="M183" s="149"/>
+      <c r="N183" s="149"/>
+      <c r="O183" s="149"/>
+      <c r="P183" s="150">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -15452,7 +15399,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
+      <selection pane="bottomLeft" activeCell="T128" sqref="T128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15468,12 +15415,13 @@
     <col min="10" max="10" width="12.5546875" style="9" customWidth="1"/>
     <col min="11" max="12" width="8.88671875" style="9"/>
     <col min="13" max="13" width="10.44140625" style="9" customWidth="1"/>
-    <col min="14" max="16" width="8.88671875" style="9"/>
+    <col min="14" max="15" width="8.88671875" style="9"/>
+    <col min="16" max="16" width="13.77734375" style="9" customWidth="1"/>
     <col min="17" max="17" width="23.5546875" style="9" customWidth="1"/>
     <col min="18" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="102" t="s">
         <v>19</v>
       </c>
@@ -15520,7 +15468,7 @@
         <v>9</v>
       </c>
       <c r="P1" s="81" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="Q1" s="93" t="s">
         <v>37</v>
@@ -20880,7 +20828,7 @@
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A103" s="142" t="s">
+      <c r="A103" s="141" t="s">
         <v>16</v>
       </c>
       <c r="B103" s="109">
@@ -21092,7 +21040,7 @@
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A107" s="142" t="s">
+      <c r="A107" s="141" t="s">
         <v>16</v>
       </c>
       <c r="B107" s="109">
@@ -21304,7 +21252,7 @@
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A111" s="142" t="s">
+      <c r="A111" s="141" t="s">
         <v>16</v>
       </c>
       <c r="B111" s="109">
@@ -22264,9 +22212,7 @@
       <c r="B129" s="1">
         <v>16</v>
       </c>
-      <c r="C129" s="1">
-        <v>0</v>
-      </c>
+      <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -22490,7 +22436,7 @@
       <c r="Q138" s="1"/>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A139" s="172" t="s">
+      <c r="A139" s="157" t="s">
         <v>16</v>
       </c>
     </row>
@@ -22576,395 +22522,450 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="8.88671875" style="5"/>
-    <col min="4" max="18" width="7.21875" style="5" customWidth="1"/>
+    <col min="4" max="5" width="7.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="7.21875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="5" customWidth="1"/>
+    <col min="10" max="14" width="7.21875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="5" customWidth="1"/>
+    <col min="16" max="17" width="7.21875" style="5" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" style="5" customWidth="1"/>
     <col min="19" max="19" width="8.88671875" style="5" customWidth="1"/>
-    <col min="20" max="21" width="8.88671875" style="5"/>
+    <col min="20" max="20" width="8.88671875" style="5"/>
+    <col min="21" max="21" width="12.88671875" style="5" customWidth="1"/>
     <col min="22" max="22" width="17.44140625" style="5" customWidth="1"/>
     <col min="23" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="158" t="s">
+    <row r="1" spans="1:22" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="169" t="s">
+      <c r="C1" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="156" t="s">
+      <c r="D1" s="170" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="156" t="s">
+      <c r="E1" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="156" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="156" t="s">
+      <c r="F1" s="171" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="156" t="s">
+      <c r="H1" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="156" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="156" t="s">
+      <c r="I1" s="171" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="170" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="156" t="s">
+      <c r="K1" s="170" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="156" t="s">
-        <v>84</v>
-      </c>
-      <c r="M1" s="156" t="s">
+      <c r="L1" s="171" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="170" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="156" t="s">
+      <c r="N1" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="156" t="s">
-        <v>85</v>
-      </c>
-      <c r="P1" s="156" t="s">
+      <c r="O1" s="171" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="170" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="156" t="s">
+      <c r="Q1" s="170" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="156" t="s">
-        <v>86</v>
-      </c>
-      <c r="S1" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="T1" s="162" t="s">
+      <c r="R1" s="171" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="164" t="s">
-        <v>87</v>
-      </c>
-      <c r="V1" s="166" t="s">
+      <c r="U1" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="155" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="159"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="167"/>
+      <c r="A2" s="158" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="159">
+        <v>1</v>
+      </c>
+      <c r="C2" s="160" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="161">
+        <v>0</v>
+      </c>
+      <c r="E2" s="161">
+        <v>0</v>
+      </c>
+      <c r="F2" s="161">
+        <v>0</v>
+      </c>
+      <c r="G2" s="161">
+        <v>0</v>
+      </c>
+      <c r="H2" s="161">
+        <v>0</v>
+      </c>
+      <c r="I2" s="161">
+        <v>0</v>
+      </c>
+      <c r="J2" s="161">
+        <v>5</v>
+      </c>
+      <c r="K2" s="161">
+        <v>9</v>
+      </c>
+      <c r="L2" s="161">
+        <v>0</v>
+      </c>
+      <c r="M2" s="161">
+        <v>0</v>
+      </c>
+      <c r="N2" s="161">
+        <v>0</v>
+      </c>
+      <c r="O2" s="161">
+        <v>0</v>
+      </c>
+      <c r="P2" s="161">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="162">
+        <v>9</v>
+      </c>
+      <c r="R2" s="162">
+        <v>0.75</v>
+      </c>
+      <c r="S2" s="163">
+        <f t="shared" ref="S2:S10" si="0">D2+G2+J2+M2+P2</f>
+        <v>8</v>
+      </c>
+      <c r="T2" s="163">
+        <f t="shared" ref="T2:T10" si="1">E2+H2+K2+N2+Q2</f>
+        <v>18</v>
+      </c>
+      <c r="U2" s="159">
+        <f t="shared" ref="U2:U10" si="2">F2+I2+L2+O2+R2</f>
+        <v>0.75</v>
+      </c>
+      <c r="V2" s="164" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="174">
-        <v>1</v>
-      </c>
-      <c r="C3" s="175" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="176">
-        <v>0</v>
-      </c>
-      <c r="E3" s="176">
-        <v>0</v>
-      </c>
-      <c r="F3" s="176">
-        <v>0</v>
-      </c>
-      <c r="G3" s="176">
-        <v>0</v>
-      </c>
-      <c r="H3" s="176">
-        <v>0</v>
-      </c>
-      <c r="I3" s="176">
-        <v>0</v>
-      </c>
-      <c r="J3" s="176">
+      <c r="B3" s="105">
+        <v>1</v>
+      </c>
+      <c r="C3" s="165" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="166">
+        <v>0</v>
+      </c>
+      <c r="E3" s="166">
+        <v>0</v>
+      </c>
+      <c r="F3" s="166">
+        <v>0</v>
+      </c>
+      <c r="G3" s="166">
+        <v>0</v>
+      </c>
+      <c r="H3" s="166">
+        <v>0</v>
+      </c>
+      <c r="I3" s="166">
+        <v>0</v>
+      </c>
+      <c r="J3" s="166">
+        <v>2</v>
+      </c>
+      <c r="K3" s="166">
+        <v>6</v>
+      </c>
+      <c r="L3" s="166">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="166">
+        <v>0</v>
+      </c>
+      <c r="N3" s="166">
+        <v>0</v>
+      </c>
+      <c r="O3" s="166">
+        <v>0</v>
+      </c>
+      <c r="P3" s="166">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="104">
+        <v>7</v>
+      </c>
+      <c r="R3" s="104">
+        <v>1.25</v>
+      </c>
+      <c r="S3" s="163">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K3" s="176">
-        <v>9</v>
-      </c>
-      <c r="L3" s="176">
-        <v>0</v>
-      </c>
-      <c r="M3" s="176">
-        <v>0</v>
-      </c>
-      <c r="N3" s="176">
-        <v>0</v>
-      </c>
-      <c r="O3" s="176">
-        <v>0</v>
-      </c>
-      <c r="P3" s="176">
+      <c r="T3" s="163">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="U3" s="159">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="V3" s="164" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="124">
+        <v>2</v>
+      </c>
+      <c r="C4" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="125">
+        <v>10</v>
+      </c>
+      <c r="E4" s="125">
+        <v>1</v>
+      </c>
+      <c r="F4" s="125">
+        <v>9.75</v>
+      </c>
+      <c r="G4" s="125">
+        <v>0</v>
+      </c>
+      <c r="H4" s="125">
+        <v>0</v>
+      </c>
+      <c r="I4" s="125">
+        <v>0</v>
+      </c>
+      <c r="J4" s="125">
+        <v>6</v>
+      </c>
+      <c r="K4" s="125">
+        <v>7</v>
+      </c>
+      <c r="L4" s="125">
+        <v>4.25</v>
+      </c>
+      <c r="M4" s="125">
+        <v>4</v>
+      </c>
+      <c r="N4" s="125">
         <v>3</v>
       </c>
-      <c r="Q3" s="177">
-        <v>9</v>
-      </c>
-      <c r="R3" s="177">
+      <c r="O4" s="125">
+        <v>3.25</v>
+      </c>
+      <c r="P4" s="125">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="109">
+        <v>2</v>
+      </c>
+      <c r="R4" s="109">
+        <v>6.5</v>
+      </c>
+      <c r="S4" s="126">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="T4" s="126">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="U4" s="127">
+        <f t="shared" si="2"/>
+        <v>23.75</v>
+      </c>
+      <c r="V4" s="128" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="130">
+        <v>2</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="125">
+        <v>2</v>
+      </c>
+      <c r="E5" s="125">
+        <v>1</v>
+      </c>
+      <c r="F5" s="125">
+        <v>1.75</v>
+      </c>
+      <c r="G5" s="125">
+        <v>0</v>
+      </c>
+      <c r="H5" s="125">
+        <v>0</v>
+      </c>
+      <c r="I5" s="125">
+        <v>0</v>
+      </c>
+      <c r="J5" s="125">
+        <v>2</v>
+      </c>
+      <c r="K5" s="125">
+        <v>3</v>
+      </c>
+      <c r="L5" s="125">
+        <v>1.25</v>
+      </c>
+      <c r="M5" s="125">
+        <v>0</v>
+      </c>
+      <c r="N5" s="125">
+        <v>1</v>
+      </c>
+      <c r="O5" s="125">
+        <v>-0.25</v>
+      </c>
+      <c r="P5" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="125">
+        <v>2</v>
+      </c>
+      <c r="R5" s="125">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="132">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="T5" s="132">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U5" s="133">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+      <c r="V5" s="134" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="124">
+        <v>2</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="109">
+        <v>4</v>
+      </c>
+      <c r="E6" s="109">
+        <v>4</v>
+      </c>
+      <c r="F6" s="109">
+        <v>3</v>
+      </c>
+      <c r="G6" s="109">
+        <v>0</v>
+      </c>
+      <c r="H6" s="109">
+        <v>0</v>
+      </c>
+      <c r="I6" s="109">
+        <v>0</v>
+      </c>
+      <c r="J6" s="109">
+        <v>0</v>
+      </c>
+      <c r="K6" s="109">
+        <v>3</v>
+      </c>
+      <c r="L6" s="109">
+        <v>-0.75</v>
+      </c>
+      <c r="M6" s="109">
+        <v>1</v>
+      </c>
+      <c r="N6" s="109">
+        <v>1</v>
+      </c>
+      <c r="O6" s="109">
         <v>0.75</v>
       </c>
-      <c r="S3" s="178">
-        <f>D3+G3+J3+M3+P3</f>
-        <v>8</v>
-      </c>
-      <c r="T3" s="178">
-        <f>E3+H3+K3+N3+Q3</f>
-        <v>18</v>
-      </c>
-      <c r="U3" s="174">
-        <f>F3+I3+L3+O3+R3</f>
-        <v>0.75</v>
-      </c>
-      <c r="V3" s="179" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="173" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="105">
-        <v>1</v>
-      </c>
-      <c r="C4" s="180" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="181">
-        <v>0</v>
-      </c>
-      <c r="E4" s="181">
-        <v>0</v>
-      </c>
-      <c r="F4" s="181">
-        <v>0</v>
-      </c>
-      <c r="G4" s="181">
-        <v>0</v>
-      </c>
-      <c r="H4" s="181">
-        <v>0</v>
-      </c>
-      <c r="I4" s="181">
-        <v>0</v>
-      </c>
-      <c r="J4" s="181">
-        <v>2</v>
-      </c>
-      <c r="K4" s="181">
+      <c r="P6" s="109">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="109">
+        <v>3</v>
+      </c>
+      <c r="R6" s="109">
+        <v>0.25</v>
+      </c>
+      <c r="S6" s="109">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L4" s="181">
-        <v>0.5</v>
-      </c>
-      <c r="M4" s="181">
-        <v>0</v>
-      </c>
-      <c r="N4" s="181">
-        <v>0</v>
-      </c>
-      <c r="O4" s="181">
-        <v>0</v>
-      </c>
-      <c r="P4" s="181">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="104">
-        <v>7</v>
-      </c>
-      <c r="R4" s="104">
-        <v>1.25</v>
-      </c>
-      <c r="S4" s="178">
-        <f>D4+G4+J4+M4+P4</f>
-        <v>5</v>
-      </c>
-      <c r="T4" s="178">
-        <f>E4+H4+K4+N4+Q4</f>
-        <v>13</v>
-      </c>
-      <c r="U4" s="174">
-        <f>F4+I4+L4+O4+R4</f>
-        <v>1.75</v>
-      </c>
-      <c r="V4" s="179" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="124">
-        <v>2</v>
-      </c>
-      <c r="C5" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="125">
-        <v>10</v>
-      </c>
-      <c r="E5" s="125">
-        <v>1</v>
-      </c>
-      <c r="F5" s="125">
-        <v>9.75</v>
-      </c>
-      <c r="G5" s="125">
-        <v>0</v>
-      </c>
-      <c r="H5" s="125">
-        <v>0</v>
-      </c>
-      <c r="I5" s="125">
-        <v>0</v>
-      </c>
-      <c r="J5" s="125">
-        <v>6</v>
-      </c>
-      <c r="K5" s="125">
-        <v>7</v>
-      </c>
-      <c r="L5" s="125">
-        <v>4.25</v>
-      </c>
-      <c r="M5" s="125">
-        <v>4</v>
-      </c>
-      <c r="N5" s="125">
-        <v>3</v>
-      </c>
-      <c r="O5" s="125">
+      <c r="T6" s="109">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="U6" s="124">
+        <f t="shared" si="2"/>
         <v>3.25</v>
       </c>
-      <c r="P5" s="125">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="109">
-        <v>2</v>
-      </c>
-      <c r="R5" s="109">
-        <v>6.5</v>
-      </c>
-      <c r="S5" s="126">
-        <f>D5+G5+J5+M5+P5</f>
-        <v>27</v>
-      </c>
-      <c r="T5" s="126">
-        <f>E5+H5+K5+N5+Q5</f>
-        <v>13</v>
-      </c>
-      <c r="U5" s="127">
-        <f>F5+I5+L5+O5+R5</f>
-        <v>23.75</v>
-      </c>
-      <c r="V5" s="128" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="129" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="130">
-        <v>2</v>
-      </c>
-      <c r="C6" s="131" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="125">
-        <v>2</v>
-      </c>
-      <c r="E6" s="125">
-        <v>1</v>
-      </c>
-      <c r="F6" s="125">
-        <v>1.75</v>
-      </c>
-      <c r="G6" s="125">
-        <v>0</v>
-      </c>
-      <c r="H6" s="125">
-        <v>0</v>
-      </c>
-      <c r="I6" s="125">
-        <v>0</v>
-      </c>
-      <c r="J6" s="125">
-        <v>2</v>
-      </c>
-      <c r="K6" s="125">
-        <v>3</v>
-      </c>
-      <c r="L6" s="125">
-        <v>1.25</v>
-      </c>
-      <c r="M6" s="125">
-        <v>0</v>
-      </c>
-      <c r="N6" s="125">
-        <v>1</v>
-      </c>
-      <c r="O6" s="125">
-        <v>-0.25</v>
-      </c>
-      <c r="P6" s="125">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="125">
-        <v>2</v>
-      </c>
-      <c r="R6" s="125">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="132">
-        <f>D6+G6+J6+M6+P6</f>
-        <v>5</v>
-      </c>
-      <c r="T6" s="132">
-        <f>E6+H6+K6+N6+Q6</f>
-        <v>7</v>
-      </c>
-      <c r="U6" s="133">
-        <f>F6+I6+L6+O6+R6</f>
-        <v>3.25</v>
-      </c>
-      <c r="V6" s="134" t="s">
+      <c r="V6" s="109" t="s">
         <v>59</v>
       </c>
     </row>
@@ -22976,34 +22977,34 @@
         <v>2</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D7" s="109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" s="109">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="109">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="G7" s="109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="109">
         <v>0</v>
       </c>
       <c r="I7" s="109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="109">
         <v>0</v>
       </c>
       <c r="K7" s="109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" s="109">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="M7" s="109">
         <v>1</v>
@@ -23015,190 +23016,190 @@
         <v>0.75</v>
       </c>
       <c r="P7" s="109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7" s="109">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S7" s="109">
-        <f>D7+G7+J7+M7+P7</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="T7" s="109">
-        <f>E7+H7+K7+N7+Q7</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="U7" s="124">
-        <f>F7+I7+L7+O7+R7</f>
-        <v>3.25</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="V7" s="109" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="109" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="124">
         <v>2</v>
       </c>
-      <c r="C8" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="109">
+      <c r="C8" s="131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="131">
+        <v>0</v>
+      </c>
+      <c r="E8" s="131">
+        <v>0</v>
+      </c>
+      <c r="F8" s="131">
+        <v>0</v>
+      </c>
+      <c r="G8" s="131">
+        <v>0</v>
+      </c>
+      <c r="H8" s="131">
+        <v>0</v>
+      </c>
+      <c r="I8" s="131">
+        <v>0</v>
+      </c>
+      <c r="J8" s="131">
         <v>2</v>
       </c>
-      <c r="E8" s="109">
+      <c r="K8" s="131">
         <v>5</v>
       </c>
-      <c r="F8" s="109">
+      <c r="L8" s="131">
         <v>0.75</v>
       </c>
-      <c r="G8" s="109">
-        <v>1</v>
-      </c>
-      <c r="H8" s="109">
-        <v>0</v>
-      </c>
-      <c r="I8" s="109">
-        <v>1</v>
-      </c>
-      <c r="J8" s="109">
-        <v>0</v>
-      </c>
-      <c r="K8" s="109">
-        <v>2</v>
-      </c>
-      <c r="L8" s="109">
-        <v>-0.5</v>
-      </c>
-      <c r="M8" s="109">
-        <v>1</v>
-      </c>
-      <c r="N8" s="109">
-        <v>1</v>
-      </c>
-      <c r="O8" s="109">
+      <c r="M8" s="131">
+        <v>0</v>
+      </c>
+      <c r="N8" s="131">
+        <v>0</v>
+      </c>
+      <c r="O8" s="131">
+        <v>0</v>
+      </c>
+      <c r="P8" s="131">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="131">
+        <v>4</v>
+      </c>
+      <c r="R8" s="131">
+        <v>0</v>
+      </c>
+      <c r="S8" s="131">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="T8" s="131">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="U8" s="131">
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="P8" s="109">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="109">
+      <c r="V8" s="125" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="167" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="98">
+        <v>3</v>
+      </c>
+      <c r="C9" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="100">
         <v>4</v>
       </c>
-      <c r="R8" s="109">
+      <c r="E9" s="100">
+        <v>1</v>
+      </c>
+      <c r="F9" s="100">
+        <v>3.75</v>
+      </c>
+      <c r="G9" s="100">
+        <v>0</v>
+      </c>
+      <c r="H9" s="100">
+        <v>0</v>
+      </c>
+      <c r="I9" s="100">
+        <v>0</v>
+      </c>
+      <c r="J9" s="100">
+        <v>1</v>
+      </c>
+      <c r="K9" s="100">
+        <v>4</v>
+      </c>
+      <c r="L9" s="100">
+        <v>0</v>
+      </c>
+      <c r="M9" s="100">
+        <v>0</v>
+      </c>
+      <c r="N9" s="100">
+        <v>4</v>
+      </c>
+      <c r="O9" s="100">
         <v>-1</v>
       </c>
-      <c r="S8" s="109">
-        <f>D8+G8+J8+M8+P8</f>
+      <c r="P9" s="100">
         <v>4</v>
       </c>
-      <c r="T8" s="109">
-        <f>E8+H8+K8+N8+Q8</f>
-        <v>12</v>
-      </c>
-      <c r="U8" s="124">
-        <f>F8+I8+L8+O8+R8</f>
-        <v>1</v>
-      </c>
-      <c r="V8" s="109" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="109" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="124">
-        <v>2</v>
-      </c>
-      <c r="C9" s="131" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="131">
-        <v>0</v>
-      </c>
-      <c r="E9" s="131">
-        <v>0</v>
-      </c>
-      <c r="F9" s="131">
-        <v>0</v>
-      </c>
-      <c r="G9" s="131">
-        <v>0</v>
-      </c>
-      <c r="H9" s="131">
-        <v>0</v>
-      </c>
-      <c r="I9" s="131">
-        <v>0</v>
-      </c>
-      <c r="J9" s="131">
-        <v>2</v>
-      </c>
-      <c r="K9" s="131">
-        <v>5</v>
-      </c>
-      <c r="L9" s="131">
-        <v>0.75</v>
-      </c>
-      <c r="M9" s="131">
-        <v>0</v>
-      </c>
-      <c r="N9" s="131">
-        <v>0</v>
-      </c>
-      <c r="O9" s="131">
-        <v>0</v>
-      </c>
-      <c r="P9" s="131">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="131">
+      <c r="Q9" s="100">
         <v>4</v>
       </c>
-      <c r="R9" s="131">
-        <v>0</v>
-      </c>
-      <c r="S9" s="131">
-        <f>D9+G9+J9+M9+P9</f>
+      <c r="R9" s="100">
         <v>3</v>
       </c>
-      <c r="T9" s="131">
-        <f>E9+H9+K9+N9+Q9</f>
+      <c r="S9" s="100">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="U9" s="131">
-        <f>F9+I9+L9+O9+R9</f>
-        <v>0.75</v>
-      </c>
-      <c r="V9" s="125" t="s">
-        <v>59</v>
+      <c r="T9" s="100">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="U9" s="168">
+        <f t="shared" si="2"/>
+        <v>5.75</v>
+      </c>
+      <c r="V9" s="169" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="100" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="98">
         <v>3</v>
       </c>
       <c r="C10" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="100">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="G10" s="100">
         <v>0</v>
@@ -23210,10 +23211,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="100">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L10" s="100">
         <v>0</v>
@@ -23222,34 +23223,34 @@
         <v>0</v>
       </c>
       <c r="N10" s="100">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O10" s="100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="100">
         <v>4</v>
       </c>
       <c r="R10" s="100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S10" s="100">
-        <f>D10+G10+J10+M10+P10</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="T10" s="100">
-        <f>E10+H10+K10+N10+Q10</f>
-        <v>13</v>
-      </c>
-      <c r="U10" s="183">
-        <f>F10+I10+L10+O10+R10</f>
-        <v>5.75</v>
-      </c>
-      <c r="V10" s="184" t="s">
-        <v>88</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="U10" s="168">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="V10" s="169" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23259,17 +23260,17 @@
       <c r="B11" s="98">
         <v>3</v>
       </c>
-      <c r="C11" s="98" t="s">
-        <v>23</v>
+      <c r="C11" s="100" t="s">
+        <v>58</v>
       </c>
       <c r="D11" s="100">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E11" s="100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="100">
-        <v>2.5</v>
+        <v>6.75</v>
       </c>
       <c r="G11" s="100">
         <v>0</v>
@@ -23299,28 +23300,28 @@
         <v>0</v>
       </c>
       <c r="P11" s="100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="100">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R11" s="100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="100">
-        <f>D11+G11+J11+M11+P11</f>
-        <v>5</v>
+        <f t="shared" ref="S11:T15" si="3">D11+G11+J11+M11+P11</f>
+        <v>7</v>
       </c>
       <c r="T11" s="100">
-        <f>E11+H11+K11+N11+Q11</f>
-        <v>6</v>
-      </c>
-      <c r="U11" s="183">
-        <f>F11+I11+L11+O11+R11</f>
-        <v>3.5</v>
-      </c>
-      <c r="V11" s="184" t="s">
-        <v>88</v>
+        <f t="shared" ref="T11:T14" si="4">E11+H11+K11+N11+Q11</f>
+        <v>1</v>
+      </c>
+      <c r="U11" s="168">
+        <f t="shared" ref="U11:U21" si="5">F11+I11+L11+O11+R11</f>
+        <v>6.75</v>
+      </c>
+      <c r="V11" s="169" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23330,17 +23331,17 @@
       <c r="B12" s="98">
         <v>3</v>
       </c>
-      <c r="C12" s="100" t="s">
-        <v>58</v>
+      <c r="C12" s="98" t="s">
+        <v>60</v>
       </c>
       <c r="D12" s="100">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E12" s="100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12" s="100">
-        <v>6.75</v>
+        <v>1.75</v>
       </c>
       <c r="G12" s="100">
         <v>0</v>
@@ -23352,191 +23353,191 @@
         <v>0</v>
       </c>
       <c r="J12" s="100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="100">
         <v>0</v>
       </c>
       <c r="L12" s="100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="100">
         <v>0</v>
       </c>
       <c r="N12" s="100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" s="100">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="P12" s="100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R12" s="100">
         <v>0</v>
       </c>
       <c r="S12" s="100">
-        <f t="shared" ref="S12:T20" si="0">D12+G12+J12+M12+P12</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="T12" s="100">
-        <f t="shared" ref="T12:T20" si="1">E12+H12+K12+N12+Q12</f>
-        <v>1</v>
-      </c>
-      <c r="U12" s="183">
-        <f t="shared" ref="U12:U22" si="2">F12+I12+L12+O12+R12</f>
-        <v>6.75</v>
-      </c>
-      <c r="V12" s="184" t="s">
-        <v>88</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="U12" s="168">
+        <f t="shared" si="5"/>
+        <v>2.25</v>
+      </c>
+      <c r="V12" s="169" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="167" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="98">
         <v>3</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D13" s="100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="100">
+        <v>2</v>
+      </c>
+      <c r="F13" s="100">
+        <v>1.5</v>
+      </c>
+      <c r="G13" s="100">
+        <v>0</v>
+      </c>
+      <c r="H13" s="100">
+        <v>0</v>
+      </c>
+      <c r="I13" s="100">
+        <v>0</v>
+      </c>
+      <c r="J13" s="100">
+        <v>1</v>
+      </c>
+      <c r="K13" s="100">
+        <v>1</v>
+      </c>
+      <c r="L13" s="100">
+        <v>0.75</v>
+      </c>
+      <c r="M13" s="100">
+        <v>0</v>
+      </c>
+      <c r="N13" s="100">
+        <v>1</v>
+      </c>
+      <c r="O13" s="100">
+        <v>-0.25</v>
+      </c>
+      <c r="P13" s="100">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="100">
+        <v>1</v>
+      </c>
+      <c r="R13" s="100">
+        <v>2.75</v>
+      </c>
+      <c r="S13" s="100">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="T13" s="100">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F13" s="100">
-        <v>1.75</v>
-      </c>
-      <c r="G13" s="100">
-        <v>0</v>
-      </c>
-      <c r="H13" s="100">
-        <v>0</v>
-      </c>
-      <c r="I13" s="100">
-        <v>0</v>
-      </c>
-      <c r="J13" s="100">
-        <v>1</v>
-      </c>
-      <c r="K13" s="100">
-        <v>0</v>
-      </c>
-      <c r="L13" s="100">
-        <v>1</v>
-      </c>
-      <c r="M13" s="100">
-        <v>0</v>
-      </c>
-      <c r="N13" s="100">
-        <v>2</v>
-      </c>
-      <c r="O13" s="100">
-        <v>-0.5</v>
-      </c>
-      <c r="P13" s="100">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="100">
-        <v>4</v>
-      </c>
-      <c r="R13" s="100">
-        <v>0</v>
-      </c>
-      <c r="S13" s="100">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="T13" s="100">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="U13" s="183">
-        <f t="shared" si="2"/>
-        <v>2.25</v>
-      </c>
-      <c r="V13" s="184" t="s">
-        <v>88</v>
+      <c r="U13" s="168">
+        <f t="shared" si="5"/>
+        <v>4.75</v>
+      </c>
+      <c r="V13" s="169" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="182" t="s">
+      <c r="A14" s="100" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="98">
         <v>3</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D14" s="100">
         <v>2</v>
       </c>
       <c r="E14" s="100">
+        <v>7</v>
+      </c>
+      <c r="F14" s="100">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="100">
+        <v>0</v>
+      </c>
+      <c r="H14" s="100">
+        <v>0</v>
+      </c>
+      <c r="I14" s="100">
+        <v>0</v>
+      </c>
+      <c r="J14" s="100">
+        <v>1</v>
+      </c>
+      <c r="K14" s="100">
+        <v>7</v>
+      </c>
+      <c r="L14" s="100">
+        <v>-0.75</v>
+      </c>
+      <c r="M14" s="100">
+        <v>0</v>
+      </c>
+      <c r="N14" s="100">
+        <v>0</v>
+      </c>
+      <c r="O14" s="100">
+        <v>0</v>
+      </c>
+      <c r="P14" s="100">
         <v>2</v>
       </c>
-      <c r="F14" s="100">
+      <c r="Q14" s="100">
+        <v>2</v>
+      </c>
+      <c r="R14" s="100">
         <v>1.5</v>
       </c>
-      <c r="G14" s="100">
-        <v>0</v>
-      </c>
-      <c r="H14" s="100">
-        <v>0</v>
-      </c>
-      <c r="I14" s="100">
-        <v>0</v>
-      </c>
-      <c r="J14" s="100">
-        <v>1</v>
-      </c>
-      <c r="K14" s="100">
-        <v>1</v>
-      </c>
-      <c r="L14" s="100">
-        <v>0.75</v>
-      </c>
-      <c r="M14" s="100">
-        <v>0</v>
-      </c>
-      <c r="N14" s="100">
-        <v>1</v>
-      </c>
-      <c r="O14" s="100">
-        <v>-0.25</v>
-      </c>
-      <c r="P14" s="100">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="100">
-        <v>1</v>
-      </c>
-      <c r="R14" s="100">
-        <v>2.75</v>
-      </c>
       <c r="S14" s="100">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="T14" s="100">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="U14" s="183">
-        <f t="shared" si="2"/>
-        <v>4.75</v>
-      </c>
-      <c r="V14" s="184" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="U14" s="168">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V14" s="169" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="100" t="s">
         <v>40</v>
       </c>
@@ -23544,147 +23545,111 @@
         <v>3</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="100">
+        <v>28</v>
+      </c>
+      <c r="D15" s="98">
+        <v>1</v>
+      </c>
+      <c r="E15" s="98">
         <v>2</v>
       </c>
-      <c r="E15" s="100">
-        <v>7</v>
-      </c>
-      <c r="F15" s="100">
+      <c r="F15" s="98">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="98">
+        <v>0</v>
+      </c>
+      <c r="H15" s="98">
+        <v>0</v>
+      </c>
+      <c r="I15" s="98">
+        <v>0</v>
+      </c>
+      <c r="J15" s="98">
+        <v>2</v>
+      </c>
+      <c r="K15" s="98">
+        <v>3</v>
+      </c>
+      <c r="L15" s="98">
+        <v>1.25</v>
+      </c>
+      <c r="M15" s="98">
+        <v>1</v>
+      </c>
+      <c r="N15" s="98">
+        <v>3</v>
+      </c>
+      <c r="O15" s="98">
         <v>0.25</v>
       </c>
-      <c r="G15" s="100">
-        <v>0</v>
-      </c>
-      <c r="H15" s="100">
-        <v>0</v>
-      </c>
-      <c r="I15" s="100">
-        <v>0</v>
-      </c>
-      <c r="J15" s="100">
-        <v>1</v>
-      </c>
-      <c r="K15" s="100">
-        <v>7</v>
-      </c>
-      <c r="L15" s="100">
-        <v>-0.75</v>
-      </c>
-      <c r="M15" s="100">
-        <v>0</v>
-      </c>
-      <c r="N15" s="100">
-        <v>0</v>
-      </c>
-      <c r="O15" s="100">
-        <v>0</v>
-      </c>
-      <c r="P15" s="100">
+      <c r="P15" s="98">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="98">
         <v>2</v>
       </c>
-      <c r="Q15" s="100">
-        <v>2</v>
-      </c>
-      <c r="R15" s="100">
-        <v>1.5</v>
+      <c r="R15" s="98">
+        <v>0.5</v>
       </c>
       <c r="S15" s="100">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="T15" s="100">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="U15" s="183">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V15" s="184" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="100" t="s">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="U15" s="168">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="V15" s="169" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="98">
+      <c r="B16" s="2">
         <v>3</v>
       </c>
-      <c r="C16" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="98">
-        <v>1</v>
-      </c>
-      <c r="E16" s="98">
-        <v>2</v>
-      </c>
-      <c r="F16" s="98">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="98">
-        <v>0</v>
-      </c>
-      <c r="H16" s="98">
-        <v>0</v>
-      </c>
-      <c r="I16" s="98">
-        <v>0</v>
-      </c>
-      <c r="J16" s="98">
-        <v>2</v>
-      </c>
-      <c r="K16" s="98">
-        <v>3</v>
-      </c>
-      <c r="L16" s="98">
-        <v>1.25</v>
-      </c>
-      <c r="M16" s="98">
-        <v>1</v>
-      </c>
-      <c r="N16" s="98">
-        <v>3</v>
-      </c>
-      <c r="O16" s="98">
-        <v>0.25</v>
-      </c>
-      <c r="P16" s="98">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="98">
-        <v>2</v>
-      </c>
-      <c r="R16" s="98">
-        <v>0.5</v>
-      </c>
-      <c r="S16" s="100">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="T16" s="100">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="U16" s="183">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-      <c r="V16" s="184" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="109" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="135">
+        <f t="shared" ref="S16:S21" si="6">D16+G16+J16+M16+P16</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="135">
+        <f t="shared" ref="T16:T21" si="7">E16+H16+K16+N16+Q16</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="136">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -23702,21 +23667,21 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="135">
-        <f t="shared" ref="S17:S22" si="3">D17+G17+J17+M17+P17</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T17" s="135">
-        <f t="shared" ref="T17:T22" si="4">E17+H17+K17+N17+Q17</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U17" s="136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="129" t="s">
+      <c r="A18" s="109" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="2"/>
@@ -23737,15 +23702,15 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T18" s="135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U18" s="136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V18" s="2"/>
@@ -23772,20 +23737,20 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T19" s="135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U19" s="136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="109" t="s">
         <v>40</v>
       </c>
@@ -23807,21 +23772,21 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T20" s="135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U20" s="136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="109" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="129" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="2"/>
@@ -23842,80 +23807,21 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T21" s="135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U21" s="136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="129" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="135">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="135">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="136">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:V2" xr:uid="{B0F50F41-FA95-43BB-B219-7C3CF5F5C24E}"/>
-  <mergeCells count="22">
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="P1:P2"/>
-  </mergeCells>
+  <autoFilter ref="A1:V1" xr:uid="{B0F50F41-FA95-43BB-B219-7C3CF5F5C24E}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
